--- a/CSV FILES/Question Bank.xlsx
+++ b/CSV FILES/Question Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\Desktop\projects\gen ai\model-experiments\CSV FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFAEBF3-CD28-4912-8A68-7A43BD680C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31BD24A-A600-41C3-AAAE-6E234E01F092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>QUESTIONS</t>
   </si>
@@ -2822,28 +2822,6 @@
    `;
    &lt;button css={style}&gt;Click me&lt;/button&gt;
    ```</t>
-  </si>
-  <si>
-    <t>What is JSX and how does it work in React?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSX is a syntax extension for JavaScript that looks like HTML. React uses JSX to describe what the UI should look like. The JSX code is transformed into JavaScript objects which React can understand. For example:
-```jsx
-const element = &lt;h1&gt;Hello, world!&lt;/h1&gt;;
-```
-is converted to:
-```javascript
-const element = React.createElement('h1', null, 'Hello, world!');
-```
-JSX allows you to write HTML tags directly in JavaScript, making the code easier to read and write.
-</t>
-  </si>
-  <si>
-    <t>JSX is a type of HTML used in React. It lets you write HTML directly in JavaScript files, and React uses it to create the UI. The JSX code is not JavaScript but is converted directly to HTML. For example:
-```jsx
-const element = &lt;h1&gt;Hello, world!&lt;/h1&gt;;
-```
-is used as HTML in the DOM. JSX is not transformed into JavaScript and is used as it is.</t>
   </si>
   <si>
     <t>What are React Hooks and how do they work?</t>
@@ -3996,10 +3974,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1105"/>
+  <dimension ref="A1:D1104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4470,265 +4448,259 @@
       <c r="A34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -11042,12 +11014,6 @@
       <c r="C1104" s="2"/>
       <c r="D1104" s="2"/>
     </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1105" s="2"/>
-      <c r="B1105" s="2"/>
-      <c r="C1105" s="2"/>
-      <c r="D1105" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
